--- a/kinSoft_submission_Barth_Seidel.xlsx
+++ b/kinSoft_submission_Barth_Seidel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Anders/OneDrive - Heinrich-Heine-Universitat Dusseldorf/kinSoftChallenge2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{3C868351-F9C4-D548-A7D9-BC25BD26438A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{663D6309-76CA-5C42-A302-5A5BB4607BA1}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{3C868351-F9C4-D548-A7D9-BC25BD26438A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{215E4280-7252-9B48-9A98-DBF6AB46DB75}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="20340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="31600" windowHeight="20340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CoverPage" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="62">
   <si>
     <t>Tool name:</t>
   </si>
@@ -453,9 +453,6 @@
     <t>The reported uncertainities are the 95% percentiles of the posterior distribution of the parameters.</t>
   </si>
   <si>
-    <t>Posterior distributions are given in the document.</t>
-  </si>
-  <si>
     <t>/</t>
   </si>
   <si>
@@ -468,9 +465,6 @@
     <t>Degeneracy was detected from the existence of more than one relaxation time.</t>
   </si>
   <si>
-    <t>We cannot resolve the rate constants by our method, so we instead report relaxation times.</t>
-  </si>
-  <si>
     <t>tau1</t>
   </si>
   <si>
@@ -478,6 +472,18 @@
   </si>
   <si>
     <t>tau3</t>
+  </si>
+  <si>
+    <t>5 min</t>
+  </si>
+  <si>
+    <t>(Once the tool was developed.)</t>
+  </si>
+  <si>
+    <t>We cannot resolve the rate constants by our method, so we instead report relaxation times. These relaxation times correspond to the negated inverse eigen-values of the transition rate matrix.</t>
+  </si>
+  <si>
+    <t>Posterior distributions are given in the accompanying document.</t>
   </si>
 </sst>
 </file>
@@ -687,11 +693,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1018,7 +1024,7 @@
   <dimension ref="B4:K42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1040,11 +1046,11 @@
       <c r="B7" s="1"/>
     </row>
     <row r="9" spans="2:11" s="12" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
       <c r="E9" s="11" t="s">
         <v>46</v>
       </c>
@@ -1056,11 +1062,11 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="2:11" s="12" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
       <c r="E10" s="11" t="s">
         <v>47</v>
       </c>
@@ -1072,11 +1078,11 @@
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="2:11" s="12" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="11" t="s">
         <v>48</v>
       </c>
@@ -1217,12 +1223,12 @@
     </row>
     <row r="41" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="6" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1237,23 +1243,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE28066-98A3-6441-A49B-C2C13FA99008}">
-  <dimension ref="A3:E46"/>
+  <dimension ref="A3:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="3" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="22" t="s">
         <v>31</v>
       </c>
@@ -1264,7 +1276,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>1</v>
       </c>
@@ -1275,7 +1287,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="1">
         <v>2</v>
       </c>
@@ -1286,7 +1298,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="21" t="s">
         <v>18</v>
       </c>
@@ -1298,7 +1310,7 @@
     </row>
     <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19">
         <v>0.28599999999999998</v>
@@ -1309,7 +1321,7 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="2:3" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1319,7 +1331,7 @@
     </row>
     <row r="32" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32">
         <v>3.0000000000000001E-3</v>
@@ -1330,7 +1342,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1340,7 +1352,7 @@
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45">
         <v>3.0000000000000001E-3</v>
@@ -1358,23 +1370,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC244127-5F86-0849-8DED-F9B6F88B6AA2}">
-  <dimension ref="A3:E47"/>
+  <dimension ref="A3:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="3" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="14" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="22" t="s">
         <v>31</v>
       </c>
@@ -1385,7 +1400,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>1</v>
       </c>
@@ -1396,7 +1411,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="1">
         <v>2</v>
       </c>
@@ -1407,7 +1422,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="21">
         <v>3</v>
       </c>
@@ -1425,7 +1440,7 @@
     </row>
     <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19">
         <v>9.0999999999999998E-2</v>
@@ -1439,7 +1454,7 @@
         <v>0.28399999999999997</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20">
         <v>0.17299999999999999</v>
@@ -1453,7 +1468,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="2:4" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1463,7 +1478,7 @@
     </row>
     <row r="32" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32">
         <v>3.0000000000000001E-3</v>
@@ -1477,7 +1492,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D33">
         <v>3.0000000000000001E-3</v>
@@ -1491,7 +1506,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1501,10 +1516,10 @@
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C45">
         <v>3.0000000000000001E-3</v>
@@ -1518,7 +1533,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D46">
         <v>3.0000000000000001E-3</v>
@@ -1532,39 +1547,40 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD4E94A8-C643-0E43-9D19-FEBA0CE373A3}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="14" t="s">
         <v>24</v>
@@ -1574,15 +1590,18 @@
       <c r="E3" s="23" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24"/>
       <c r="B5" s="25" t="s">
         <v>31</v>
@@ -1597,7 +1616,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="6">
         <v>1</v>
@@ -1610,7 +1629,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -1623,7 +1642,7 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="21" t="s">
         <v>18</v>
@@ -1632,58 +1651,58 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1708,8 +1727,8 @@
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
-      <c r="B19" s="29" t="s">
-        <v>56</v>
+      <c r="B19" s="28" t="s">
+        <v>60</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -1717,14 +1736,14 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="28" t="s">
         <v>57</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>59</v>
       </c>
       <c r="E20" s="6"/>
     </row>
@@ -1822,14 +1841,14 @@
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="28" t="s">
         <v>57</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>59</v>
       </c>
       <c r="E33" s="6"/>
     </row>
@@ -1922,14 +1941,14 @@
       <c r="E44" s="27"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="28" t="s">
         <v>57</v>
-      </c>
-      <c r="C46" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/kinSoft_submission_Barth_Seidel.xlsx
+++ b/kinSoft_submission_Barth_Seidel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Anders/OneDrive - Heinrich-Heine-Universitat Dusseldorf/kinSoftChallenge2019/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Anders/OneDrive - Heinrich-Heine-Universitat Dusseldorf/kinSoftChallenge/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{3C868351-F9C4-D548-A7D9-BC25BD26438A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{215E4280-7252-9B48-9A98-DBF6AB46DB75}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="13_ncr:1_{3C868351-F9C4-D548-A7D9-BC25BD26438A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B61BB451-BF8D-DF43-9F7D-19D39A98CD04}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="31600" windowHeight="20340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8060" yWindow="460" windowWidth="31600" windowHeight="19720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CoverPage" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
   <si>
     <t>Tool name:</t>
   </si>
@@ -484,12 +484,18 @@
   </si>
   <si>
     <t>Posterior distributions are given in the accompanying document.</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -656,7 +662,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -698,6 +704,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1024,7 +1031,7 @@
   <dimension ref="B4:K42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1246,7 +1253,7 @@
   <dimension ref="A3:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1313,12 +1320,12 @@
         <v>51</v>
       </c>
       <c r="C19">
-        <v>0.28599999999999998</v>
+        <v>0.14199999999999999</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="1">
-        <v>0.42499999999999999</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>51</v>
@@ -1334,12 +1341,12 @@
         <v>51</v>
       </c>
       <c r="C32">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>51</v>
@@ -1355,12 +1362,12 @@
         <v>53</v>
       </c>
       <c r="C45">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1372,8 +1379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC244127-5F86-0849-8DED-F9B6F88B6AA2}">
   <dimension ref="A3:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1464,7 +1471,7 @@
       <c r="B21">
         <v>0.249</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="31">
         <v>0.28000000000000003</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -1560,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD4E94A8-C643-0E43-9D19-FEBA0CE373A3}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1627,7 +1634,9 @@
       <c r="D6" s="6">
         <v>0.1</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
@@ -1640,7 +1649,9 @@
       <c r="D7" s="6">
         <v>0.1</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
@@ -1750,13 +1761,13 @@
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
       <c r="B21" s="6">
-        <v>0.64</v>
+        <v>1.3</v>
       </c>
       <c r="C21" s="6">
-        <v>5.3</v>
+        <v>10.8</v>
       </c>
       <c r="D21" s="6">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E21" s="6"/>
     </row>
@@ -1855,16 +1866,13 @@
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
       <c r="B34" s="6">
-        <f>B21-0.57</f>
-        <v>7.0000000000000062E-2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C34" s="6">
-        <f>C21-3.8</f>
-        <v>1.5</v>
+        <v>6.6</v>
       </c>
       <c r="D34" s="6">
-        <f>D21-15</f>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E34" s="6"/>
     </row>
@@ -1953,16 +1961,13 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47">
-        <f>0.74-B21</f>
-        <v>9.9999999999999978E-2</v>
+        <v>1.5</v>
       </c>
       <c r="C47">
-        <f>8.2-C21</f>
-        <v>2.8999999999999995</v>
+        <v>15.2</v>
       </c>
       <c r="D47">
-        <f>39-D21</f>
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/kinSoft_submission_Barth_Seidel.xlsx
+++ b/kinSoft_submission_Barth_Seidel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Anders/OneDrive - Heinrich-Heine-Universitat Dusseldorf/kinSoftChallenge/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="13_ncr:1_{3C868351-F9C4-D548-A7D9-BC25BD26438A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B61BB451-BF8D-DF43-9F7D-19D39A98CD04}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="13_ncr:1_{3C868351-F9C4-D548-A7D9-BC25BD26438A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7B57639F-9364-EC49-9226-A2D2BE166D8C}"/>
   <bookViews>
-    <workbookView xWindow="8060" yWindow="460" windowWidth="31600" windowHeight="19720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2000" yWindow="460" windowWidth="31600" windowHeight="19720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CoverPage" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="64">
   <si>
     <t>Tool name:</t>
   </si>
@@ -487,6 +487,9 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>As the Bayesian information criterion indicates that three relaxation times are justified, indicating a four-state model, we speculate that each of the observed FRET states is degenerate.</t>
   </si>
 </sst>
 </file>
@@ -701,10 +704,10 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1053,11 +1056,11 @@
       <c r="B7" s="1"/>
     </row>
     <row r="9" spans="2:11" s="12" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="11" t="s">
         <v>46</v>
       </c>
@@ -1069,11 +1072,11 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="2:11" s="12" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="11" t="s">
         <v>47</v>
       </c>
@@ -1085,11 +1088,11 @@
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="2:11" s="12" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="11" t="s">
         <v>48</v>
       </c>
@@ -1379,7 +1382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC244127-5F86-0849-8DED-F9B6F88B6AA2}">
   <dimension ref="A3:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -1471,7 +1474,7 @@
       <c r="B21">
         <v>0.249</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="30">
         <v>0.28000000000000003</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -1567,8 +1570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD4E94A8-C643-0E43-9D19-FEBA0CE373A3}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1680,7 +1683,9 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
+      <c r="B11" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>

--- a/kinSoft_submission_Barth_Seidel.xlsx
+++ b/kinSoft_submission_Barth_Seidel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Anders/OneDrive - Heinrich-Heine-Universitat Dusseldorf/kinSoftChallenge/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="13_ncr:1_{3C868351-F9C4-D548-A7D9-BC25BD26438A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7B57639F-9364-EC49-9226-A2D2BE166D8C}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="13_ncr:1_{3C868351-F9C4-D548-A7D9-BC25BD26438A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{95246E04-07C9-3D44-92DC-FEE7A791795A}"/>
   <bookViews>
-    <workbookView xWindow="2000" yWindow="460" windowWidth="31600" windowHeight="19720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="19720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CoverPage" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
   <si>
     <t>Tool name:</t>
   </si>
@@ -1256,7 +1256,7 @@
   <dimension ref="A3:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B19" sqref="B19:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1382,8 +1382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC244127-5F86-0849-8DED-F9B6F88B6AA2}">
   <dimension ref="A3:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1449,8 +1449,8 @@
       </c>
     </row>
     <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="6" t="s">
-        <v>51</v>
+      <c r="B19" s="6">
+        <v>0</v>
       </c>
       <c r="C19">
         <v>9.0999999999999998E-2</v>
@@ -1463,8 +1463,8 @@
       <c r="B20" s="1">
         <v>0.28399999999999997</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>51</v>
+      <c r="C20" s="6">
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0.17299999999999999</v>
@@ -1477,8 +1477,8 @@
       <c r="C21" s="30">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>51</v>
+      <c r="D21" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:4" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1570,8 +1570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD4E94A8-C643-0E43-9D19-FEBA0CE373A3}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
